--- a/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2017.xlsx
+++ b/data-raw/data-tidy/tech-yearbook/part08-output/04-teckmarket-push/funds-2017.xlsx
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>249.5696650165</v>
+        <v>2495696.650165</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
@@ -520,7 +520,7 @@
         <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>4486.8872016653</v>
+        <v>44868872.016653</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>75.4633687309</v>
+        <v>754633.687309</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>162.9587400596</v>
+        <v>1629587.400596</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>937.075533017</v>
+        <v>9370755.33017</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>39.4227702474</v>
+        <v>394227.702474</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>80.7409100527</v>
+        <v>807409.100527</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="n">
-        <v>4.1078606467</v>
+        <v>41078.606467</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
@@ -660,7 +660,7 @@
         <v>8</v>
       </c>
       <c r="D10" t="n">
-        <v>88.9244700191</v>
+        <v>889244.700191</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -680,7 +680,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="n">
-        <v>76.8528270017</v>
+        <v>768528.270017</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="D12" t="n">
-        <v>146.7120902241</v>
+        <v>1467120.902241</v>
       </c>
       <c r="E12" t="s">
         <v>9</v>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
       <c r="D13" t="n">
-        <v>1033.0773085153</v>
+        <v>10330773.085153</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="D14" t="n">
-        <v>203.1915473235</v>
+        <v>2031915.473235</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>219.9199464008</v>
+        <v>2199199.464008</v>
       </c>
       <c r="E15" t="s">
         <v>9</v>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>778.4223323901</v>
+        <v>7784223.323901</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -800,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>96.2095852878</v>
+        <v>962095.852878</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -820,7 +820,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>385.8316823333</v>
+        <v>3858316.823333</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>19.6086808862</v>
+        <v>196086.808862</v>
       </c>
       <c r="E19" t="s">
         <v>9</v>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>6.6678679782</v>
+        <v>66678.679782</v>
       </c>
       <c r="E20" t="s">
         <v>9</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>67.7186321053</v>
+        <v>677186.321053</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>13424.2244691549</v>
+        <v>134242244.691549</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>511.6448179756</v>
+        <v>5116448.179756</v>
       </c>
       <c r="E23" t="s">
         <v>9</v>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>94.1470767168</v>
+        <v>941470.767168</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -960,7 +960,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>920.9395272131</v>
+        <v>9209395.272131</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>810.6176506897</v>
+        <v>8106176.506897</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>405.8306985778</v>
+        <v>4058306.985778</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>551.4410520242</v>
+        <v>5514410.520242</v>
       </c>
       <c r="E28" t="s">
         <v>9</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04402</v>
+        <v>440.2</v>
       </c>
       <c r="E29" t="s">
         <v>9</v>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
       <c r="D30" t="n">
-        <v>5.755352717</v>
+        <v>57553.52717</v>
       </c>
       <c r="E30" t="s">
         <v>9</v>
@@ -1080,7 +1080,7 @@
         <v>8</v>
       </c>
       <c r="D31" t="n">
-        <v>84.7624924495</v>
+        <v>847624.924495</v>
       </c>
       <c r="E31" t="s">
         <v>9</v>
@@ -1100,7 +1100,7 @@
         <v>8</v>
       </c>
       <c r="D32" t="n">
-        <v>324.7309730098</v>
+        <v>3247309.730098</v>
       </c>
       <c r="E32" t="s">
         <v>9</v>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>51.3580886105</v>
+        <v>513580.886105</v>
       </c>
       <c r="E33" t="s">
         <v>9</v>
